--- a/playlist_tracks.xlsx
+++ b/playlist_tracks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:F175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,27 +473,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOMMY &amp; PAMELA</t>
+          <t>PELIGROSA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Peso Pluma, Kenia OS</t>
+          <t>FloyyMenor</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ÉXODO</t>
+          <t>PELIGROSA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-06-20</t>
+          <t>2024-07-12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=dbmNWN_dEkI</t>
+          <t>https://www.youtube.com/watch?v=LW5oQl0CxdQ</t>
         </is>
       </c>
     </row>
@@ -505,27 +505,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PELIGROSA</t>
+          <t>TOMMY &amp; PAMELA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>FloyyMenor</t>
+          <t>Peso Pluma, Kenia OS</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PELIGROSA</t>
+          <t>ÉXODO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=LW5oQl0CxdQ</t>
+          <t>https://www.youtube.com/watch?v=dbmNWN_dEkI</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Se Preparó</t>
+          <t>VALERIA (feat. Gordo)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ozuna</t>
+          <t>Fuerza Regida, Maluma, Gordo</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Odisea</t>
+          <t>PERO NO TE ENAMORES</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2017-08-25</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=KWGrPNqz4uc</t>
+          <t>https://www.youtube.com/watch?v=7KrFnVsE5QQ</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>No Ponga Excusas</t>
+          <t>Se Preparó</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cris Mj</t>
+          <t>Ozuna</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>No Ponga Excusas</t>
+          <t>Odisea</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024-06-20</t>
+          <t>2017-08-25</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=rRubSkm9lvs</t>
+          <t>https://www.youtube.com/watch?v=KWGrPNqz4uc</t>
         </is>
       </c>
     </row>
@@ -665,27 +665,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Callaita</t>
+          <t>No Ponga Excusas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Bad Bunny, Tainy</t>
+          <t>Cris Mj</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Callaita</t>
+          <t>No Ponga Excusas</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2019-05-31</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=acEOASYioGY</t>
+          <t>https://www.youtube.com/watch?v=rRubSkm9lvs</t>
         </is>
       </c>
     </row>
@@ -697,27 +697,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SORRY 4 THAT MUCH</t>
+          <t>Callaita</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Feid</t>
+          <t>Bad Bunny, Tainy</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SORRY 4 THAT MUCH</t>
+          <t>Callaita</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2019-05-31</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Q2ftMmazZCU</t>
+          <t>https://www.youtube.com/watch?v=acEOASYioGY</t>
         </is>
       </c>
     </row>
@@ -729,27 +729,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BELLAKEO</t>
+          <t>SORRY 4 THAT MUCH</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Peso Pluma, Anitta</t>
+          <t>Feid</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BELLAKEO</t>
+          <t>SORRY 4 THAT MUCH</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2023-12-07</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=fOT0BUpITw8</t>
+          <t>https://www.youtube.com/watch?v=Q2ftMmazZCU</t>
         </is>
       </c>
     </row>
@@ -761,27 +761,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DILUVIO</t>
+          <t>BELLAKEO</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rauw Alejandro</t>
+          <t>Peso Pluma, Anitta</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PLAYA SATURNO</t>
+          <t>BELLAKEO</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
+          <t>2023-12-07</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Bp3Ytv-v918</t>
+          <t>https://www.youtube.com/watch?v=fOT0BUpITw8</t>
         </is>
       </c>
     </row>
@@ -793,27 +793,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ANDO</t>
+          <t>DILUVIO</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Jere Klein, Gittobeatz</t>
+          <t>Rauw Alejandro</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ANDO</t>
+          <t>PLAYA SATURNO</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-07-07</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=LfwVGlW237o</t>
+          <t>https://www.youtube.com/watch?v=Bp3Ytv-v918</t>
         </is>
       </c>
     </row>
@@ -825,27 +825,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cuando Te Vi | CROSSOVER #5</t>
+          <t>ANDO</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Big One, Maria Becerra, Trueno</t>
+          <t>Jere Klein, Gittobeatz</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Cuando Te Vi | CROSSOVER #5</t>
+          <t>ANDO</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=auDMCMqiW8U</t>
+          <t>https://www.youtube.com/watch?v=LfwVGlW237o</t>
         </is>
       </c>
     </row>
@@ -857,27 +857,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LA INOCENTE</t>
+          <t>Cuando Te Vi | CROSSOVER #5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mora, Feid</t>
+          <t>Big One, Maria Becerra, Trueno</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MICRODOSIS</t>
+          <t>Cuando Te Vi | CROSSOVER #5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2024-06-27</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ckuGLT1VkGw</t>
+          <t>https://www.youtube.com/watch?v=auDMCMqiW8U</t>
         </is>
       </c>
     </row>
@@ -889,27 +889,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SI NO ES CONTIGO</t>
+          <t>LA INOCENTE</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cris Mj</t>
+          <t>Mora, Feid</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SI NO ES CONTIGO</t>
+          <t>MICRODOSIS</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=vX1fgqKXSsk</t>
+          <t>https://www.youtube.com/watch?v=ckuGLT1VkGw</t>
         </is>
       </c>
     </row>
@@ -921,27 +921,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>SI NO ES CONTIGO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mora, Jhayco</t>
+          <t>Cris Mj</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Primer Dia de Clases</t>
+          <t>SI NO ES CONTIGO</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2021-02-05</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=206atvk4uyE</t>
+          <t>https://www.youtube.com/watch?v=vX1fgqKXSsk</t>
         </is>
       </c>
     </row>
@@ -953,27 +953,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PERRO NEGRO</t>
+          <t>512</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Bad Bunny, Feid</t>
+          <t>Mora, JHAYCO</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>nadie sabe lo que va a pasar mañana</t>
+          <t>Primer Dia de Clases</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2023-10-13</t>
+          <t>2021-02-05</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=a6tgD_CsYTQ</t>
+          <t>https://www.youtube.com/watch?v=206atvk4uyE</t>
         </is>
       </c>
     </row>
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>QUEMA</t>
+          <t>PERRO NEGRO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ryan Castro, Peso Pluma, SOG</t>
+          <t>Bad Bunny, Feid</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>QUEMA</t>
+          <t>nadie sabe lo que va a pasar mañana</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2023-07-13</t>
+          <t>2023-10-13</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=aTcpp8La4T0</t>
+          <t>https://www.youtube.com/watch?v=a6tgD_CsYTQ</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Efecto</t>
+          <t>QUEMA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Bad Bunny</t>
+          <t>Ryan Castro, Peso Pluma, SOG</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Un Verano Sin Ti</t>
+          <t>QUEMA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2023-07-13</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Nk8C9FdCdJQ</t>
+          <t>https://www.youtube.com/watch?v=aTcpp8La4T0</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>OA</t>
+          <t>Efecto</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Anuel AA, Quevedo, Maluma, Mambo Kingz, DJ Luian</t>
+          <t>Bad Bunny</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>OA</t>
+          <t>Un Verano Sin Ti</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2023-10-13</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=bWycnVL6_dE</t>
+          <t>https://www.youtube.com/watch?v=Nk8C9FdCdJQ</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LA FALDA</t>
+          <t>OA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Myke Towers</t>
+          <t>Anuel AA, Quevedo, Maluma, Mambo Kingz, DJ Luian</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LVEU: VIVE LA TUYA...NO LA MIA</t>
+          <t>OA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-10-13</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=pyZtr3_dN3E</t>
+          <t>https://www.youtube.com/watch?v=bWycnVL6_dE</t>
         </is>
       </c>
     </row>
@@ -1113,27 +1113,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>APAGA EL CEL</t>
+          <t>LA FALDA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>FloyyMenor, Lewis Somes</t>
+          <t>Myke Towers</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>APAGA EL CEL</t>
+          <t>LVEU: VIVE LA TUYA...NO LA MIA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=XyHcTsazHDI</t>
+          <t>https://www.youtube.com/watch?v=pyZtr3_dN3E</t>
         </is>
       </c>
     </row>
@@ -1145,27 +1145,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Que Hay Amor</t>
+          <t>APAGA EL CEL</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Cris Mj</t>
+          <t>FloyyMenor, Lewis Somes</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Que Hay Amor</t>
+          <t>APAGA EL CEL</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2024-04-04</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=s0i42aczxCk</t>
+          <t>https://www.youtube.com/watch?v=XyHcTsazHDI</t>
         </is>
       </c>
     </row>
@@ -1209,27 +1209,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Mirame</t>
+          <t>QUE LE DE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Blessd, Ovy On The Drums</t>
+          <t>Nes, Cris Mj</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mirame</t>
+          <t>QUE LE DE</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024-04-17</t>
+          <t>2024-07-26</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=zcw8NlHljF4</t>
+          <t>https://www.youtube.com/watch?v=9VG2hCmpufo</t>
         </is>
       </c>
     </row>
@@ -1241,27 +1241,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>UNA NOCHE EN MEDELLÍN - REMIX</t>
+          <t>Mirame</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>KAROL G, Cris Mj, Ryan Castro</t>
+          <t>Blessd, Ovy On The Drums</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>MAÑANA SERÁ BONITO (BICHOTA SEASON)</t>
+          <t>Mirame</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>2024-04-17</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=jWNXYYVHeJI</t>
+          <t>https://www.youtube.com/watch?v=zcw8NlHljF4</t>
         </is>
       </c>
     </row>
@@ -1273,27 +1273,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Santa</t>
+          <t>UNA NOCHE EN MEDELLÍN - REMIX</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Rvssian, Rauw Alejandro, Ayra Starr</t>
+          <t>KAROL G, Cris Mj, Ryan Castro</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Santa</t>
+          <t>MAÑANA SERÁ BONITO (BICHOTA SEASON)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2024-04-04</t>
+          <t>2023-08-11</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9V_HpS9p4QY</t>
+          <t>https://www.youtube.com/watch?v=jWNXYYVHeJI</t>
         </is>
       </c>
     </row>
@@ -1305,27 +1305,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Gitana (feat. Bryartz)</t>
+          <t>Santa</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Pablo Chill-E, Bryartz</t>
+          <t>Rvssian, Rauw Alejandro, Ayra Starr</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Los Gangsters Tambien Lloran</t>
+          <t>Santa</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2024-03-29</t>
+          <t>2024-04-04</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=XFAXHx3odOg</t>
+          <t>https://www.youtube.com/watch?v=9V_HpS9p4QY</t>
         </is>
       </c>
     </row>
@@ -1337,27 +1337,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>La Nota</t>
+          <t>Gitana (feat. Bryartz)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Manuel Turizo, Rauw Alejandro, Myke Towers</t>
+          <t>Pablo Chill-E, Bryartz</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>La Nota</t>
+          <t>Los Gangsters Tambien Lloran</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2020-10-08</t>
+          <t>2024-03-29</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=IWrZpP24H8I</t>
+          <t>https://www.youtube.com/watch?v=XFAXHx3odOg</t>
         </is>
       </c>
     </row>
@@ -1369,27 +1369,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Gata Only</t>
+          <t>La Nota</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>FloyyMenor, Cris Mj</t>
+          <t>Manuel Turizo, Rauw Alejandro, Myke Towers</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Gata Only</t>
+          <t>La Nota</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2020-10-08</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TVEuKyr0M58</t>
+          <t>https://www.youtube.com/watch?v=IWrZpP24H8I</t>
         </is>
       </c>
     </row>
@@ -1401,27 +1401,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Party Amanecio</t>
+          <t>4 Trokas 4 Gatas</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ryan Castro, Bad Gyal, De La Ghetto, Maldy, DJ Luian, Mambo Kingz</t>
+          <t>Polimá Westcoast, El Bogueto, Lewis Somes</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Party Amanecio</t>
+          <t>4 Trokas 4 Gatas</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=WUmVqO5GM2g</t>
+          <t>https://www.youtube.com/watch?v=WVVkQ3P1Z4g</t>
         </is>
       </c>
     </row>
@@ -1433,27 +1433,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Kilerito</t>
+          <t>Gata Only</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Brytiago, Anuel AA</t>
+          <t>FloyyMenor, Cris Mj</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Kilerito</t>
+          <t>Gata Only</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-02-02</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=dhPcSr0ah38</t>
+          <t>https://www.youtube.com/watch?v=Q0jje_RmqLE</t>
         </is>
       </c>
     </row>
@@ -1465,27 +1465,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Party BB</t>
+          <t>Kilerito</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Tiago PZK, Justin Quiles</t>
+          <t>Brytiago, Anuel AA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>GOTTI A</t>
+          <t>Kilerito</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=G7kGD7OIRNg</t>
+          <t>https://www.youtube.com/watch?v=dhPcSr0ah38</t>
         </is>
       </c>
     </row>
@@ -1497,27 +1497,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Maquillaje - Remix</t>
+          <t>Party BB</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Renn, Myke Towers, Nio Garcia, Yexel</t>
+          <t>Tiago PZK, Justin Quiles</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Maquillaje (feat. Yexel) [Remix]</t>
+          <t>GOTTI A</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2024-05-30</t>
+          <t>2024-07-04</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=sfHG9Vg-ELE</t>
+          <t>https://www.youtube.com/watch?v=G7kGD7OIRNg</t>
         </is>
       </c>
     </row>
@@ -1529,27 +1529,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Espectacular</t>
+          <t>Maquillaje - Remix</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Sky Rompiendo, Rauw Alejandro</t>
+          <t>Renn, Myke Towers, Nio Garcia, Yexel</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Espectacular</t>
+          <t>Maquillaje (feat. Yexel) [Remix]</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2024-04-18</t>
+          <t>2024-05-30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=vLXLaCY-3Ro</t>
+          <t>https://www.youtube.com/watch?v=9j4f67o_5iw</t>
         </is>
       </c>
     </row>
@@ -1561,27 +1561,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Fiel</t>
+          <t>Espectacular</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Los Legendarios, Wisin, Jhayco</t>
+          <t>Sky Rompiendo, Rauw Alejandro</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Los Legendarios 001</t>
+          <t>Espectacular</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2021-02-04</t>
+          <t>2024-04-18</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=o1lKMrLat_I</t>
+          <t>https://www.youtube.com/watch?v=vLXLaCY-3Ro</t>
         </is>
       </c>
     </row>
@@ -1593,27 +1593,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Solos (feat. Plan B)</t>
+          <t>Fiel</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Tony Dize, Plan B</t>
+          <t>Los Legendarios, Wisin, JHAYCO</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>La Melodia de la Calle (Remastered)</t>
+          <t>Los Legendarios 001</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2009-11-09</t>
+          <t>2021-02-04</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=BjdEyBF6V0U</t>
+          <t>https://www.youtube.com/watch?v=o1lKMrLat_I</t>
         </is>
       </c>
     </row>
@@ -1625,27 +1625,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>LUNA</t>
+          <t>Solos (feat. Plan B)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Feid, ATL Jacob</t>
+          <t>Tony Dize, Plan B</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>FERXXOCALIPSIS</t>
+          <t>La Melodia de la Calle (Remastered)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>2009-11-09</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=x2oUajHp8pg</t>
+          <t>https://www.youtube.com/watch?v=BjdEyBF6V0U</t>
         </is>
       </c>
     </row>
@@ -1657,27 +1657,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Polvo de tu Vida</t>
+          <t>LUNA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>J Balvin, Chencho Corleone</t>
+          <t>Feid, ATL Jacob</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Polvo de tu Vida</t>
+          <t>FERXXOCALIPSIS</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=eZDCC_zvSEs</t>
+          <t>https://www.youtube.com/watch?v=x2oUajHp8pg</t>
         </is>
       </c>
     </row>
@@ -1689,27 +1689,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AM Remix</t>
+          <t>Polvo de tu Vida</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Nio Garcia, J Balvin, Bad Bunny</t>
+          <t>J Balvin, Chencho Corleone</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>AM Remix</t>
+          <t>Polvo de tu Vida</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=RNzQdcPWWX4</t>
+          <t>https://www.youtube.com/watch?v=eZDCC_zvSEs</t>
         </is>
       </c>
     </row>
@@ -1721,27 +1721,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ADIVINO</t>
+          <t>AM Remix</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Myke Towers, Bad Bunny</t>
+          <t>Nio Garcia, J Balvin, Bad Bunny</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ADIVINO</t>
+          <t>AM Remix</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2024-04-25</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=91asC5wjlOY</t>
+          <t>https://www.youtube.com/watch?v=RNzQdcPWWX4</t>
         </is>
       </c>
     </row>
@@ -1753,27 +1753,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>offline</t>
+          <t>ADIVINO</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Young Miko, Feid</t>
+          <t>Myke Towers, Bad Bunny</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>att.</t>
+          <t>ADIVINO</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2024-04-05</t>
+          <t>2024-04-25</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=nd69valodlQ</t>
+          <t>https://www.youtube.com/watch?v=19fOoC8tcmY</t>
         </is>
       </c>
     </row>
@@ -1785,27 +1785,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Brickell</t>
+          <t>offline</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Feid, Yandel</t>
+          <t>Young Miko, Feid</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>MANIFESTING 20-05</t>
+          <t>att.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2024-04-05</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=2p6O7EmroEs</t>
+          <t>https://www.youtube.com/watch?v=nd69valodlQ</t>
         </is>
       </c>
     </row>
@@ -1817,27 +1817,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Rapido (with Cris Mj)</t>
+          <t>Brickell</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Dei V, Cris Mj</t>
+          <t>Feid, Yandel</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Quién es Dei V?</t>
+          <t>MANIFESTING 20-05</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2024-06-14</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=FZTq6Fb9iIg</t>
+          <t>https://www.youtube.com/watch?v=2p6O7EmroEs</t>
         </is>
       </c>
     </row>
@@ -1849,27 +1849,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GODIVA</t>
+          <t>Rapido (with Cris Mj)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Ovy On The Drums, Myke Towers, Blessd, Ryan Castro</t>
+          <t>Dei V, Cris Mj</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>CASSETTE 01</t>
+          <t>Quién es Dei V?</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2024-03-14</t>
+          <t>2024-06-14</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=b719yBVKlCk</t>
+          <t>https://www.youtube.com/watch?v=FZTq6Fb9iIg</t>
         </is>
       </c>
     </row>
@@ -1881,27 +1881,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>LA NENA</t>
+          <t>GODIVA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Lyanno, Rauw Alejandro</t>
+          <t>Ovy On The Drums, Myke Towers, Blessd, Ryan Castro</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LA NENA</t>
+          <t>CASSETTE 01</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2024-04-11</t>
+          <t>2024-03-14</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=na-F9WlBnj8</t>
+          <t>https://www.youtube.com/watch?v=b719yBVKlCk</t>
         </is>
       </c>
     </row>
@@ -1913,27 +1913,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GATITAS SANDUNGUERAS VOL.1</t>
+          <t>LA NENA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Alvaro Diaz, Feid</t>
+          <t>Lyanno, Rauw Alejandro</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SAYONARA</t>
+          <t>LA NENA</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-04-11</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Kx5Lu8Z9Pmc</t>
+          <t>https://www.youtube.com/watch?v=na-F9WlBnj8</t>
         </is>
       </c>
     </row>
@@ -1945,27 +1945,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>LA RANGER (feat. Myke Towers)</t>
+          <t>GATITAS SANDUNGUERAS VOL.1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>The Academy: Segunda Misión, Sech, Justin Quiles, Lenny Tavárez, Dalex, Dímelo Flow, Myke Towers</t>
+          <t>Alvaro Diaz, Feid</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>The Academy: Segunda Misión</t>
+          <t>SAYONARA</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2024-03-28</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=R6Mn_yGAzjE</t>
+          <t>https://www.youtube.com/watch?v=Kx5Lu8Z9Pmc</t>
         </is>
       </c>
     </row>
@@ -1977,27 +1977,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Oe Bebé</t>
+          <t>LA RANGER (feat. Myke Towers)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Blessd, Maluma</t>
+          <t>The Academy: Segunda Misión, Sech, Justin Quiles, Lenny Tavárez, Dalex, Dímelo Flow, Myke Towers</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Oe Bebé</t>
+          <t>The Academy: Segunda Misión</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2024-06-05</t>
+          <t>2024-03-28</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=vHTQByPb9wY</t>
+          <t>https://www.youtube.com/watch?v=ZTfwThpJ14s</t>
         </is>
       </c>
     </row>
@@ -2009,27 +2009,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>EMPELOTICA</t>
+          <t>Oe Bebé</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Lenny Tavárez, Feid</t>
+          <t>Blessd, Maluma</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>EMPELOTICA</t>
+          <t>Oe Bebé</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-06-05</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=12WrveSJ7wI</t>
+          <t>https://www.youtube.com/watch?v=vHTQByPb9wY</t>
         </is>
       </c>
     </row>
@@ -2169,12 +2169,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Paracaídas</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Brytiago, Akon, Maffio</t>
+          <t>Brytiago, Farruko, Piso 21</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2189,7 +2189,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=uZdLp_IAOyw</t>
+          <t>https://www.youtube.com/watch?v=pN55QHGyOPI</t>
         </is>
       </c>
     </row>
@@ -2265,17 +2265,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Groserías</t>
+          <t>Sin Filtro</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>J Alvarez</t>
+          <t>Brytiago, Damn Goldo</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Groserías</t>
+          <t>Afro Vibes</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=jOGrivyBlzs</t>
+          <t>https://www.youtube.com/watch?v=sik1n3zu320</t>
         </is>
       </c>
     </row>
@@ -2297,12 +2297,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Sin Filtro</t>
+          <t>Paracaídas</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Brytiago, Damn Goldo</t>
+          <t>Brytiago, Akon, Maffio</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2317,7 +2317,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=qtHT113MZjc</t>
+          <t>https://www.youtube.com/watch?v=uZdLp_IAOyw</t>
         </is>
       </c>
     </row>
@@ -2329,27 +2329,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Frida Calo</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Brytiago, Farruko, Piso 21</t>
+          <t>3 Pa 3</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Afro Vibes</t>
+          <t>Frida Calo</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=pN55QHGyOPI</t>
+          <t>https://www.youtube.com/watch?v=76uZChJs9XA</t>
         </is>
       </c>
     </row>
@@ -2361,27 +2361,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Frida Calo</t>
+          <t>Fin de Semana</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>3 Pa 3</t>
+          <t>Anonimus, Julio H, Mr. Saik</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Frida Calo</t>
+          <t>Fin de Semana</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=76uZChJs9XA</t>
+          <t>https://www.youtube.com/watch?v=VZkXHpbQedo</t>
         </is>
       </c>
     </row>
@@ -2393,17 +2393,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Chuleria</t>
+          <t>TUKUN</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Chesca, ZABDIEL</t>
+          <t>RAFIK</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Chuleria</t>
+          <t>TUKUN</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=SCC549aiEyA</t>
+          <t>https://www.youtube.com/watch?v=waUTE6xJmKY</t>
         </is>
       </c>
     </row>
@@ -2425,27 +2425,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Fin de Semana</t>
+          <t>Groserías</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Anonimus, Julio H, Mr. Saik</t>
+          <t>J Alvarez</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Fin de Semana</t>
+          <t>Groserías</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=VZkXHpbQedo</t>
+          <t>https://www.youtube.com/watch?v=jOGrivyBlzs</t>
         </is>
       </c>
     </row>
@@ -2457,27 +2457,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TUKUN</t>
+          <t>Aventura 2.0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>RAFIK</t>
+          <t>Wisin, Darell, Lenny Tavárez</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>TUKUN</t>
+          <t>Mr. W</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-04-26</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=waUTE6xJmKY</t>
+          <t>https://www.youtube.com/watch?v=76aGwhHBIZY</t>
         </is>
       </c>
     </row>
@@ -2489,27 +2489,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Aventura 2.0</t>
+          <t>Que Se Cuide</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Wisin, Darell, Lenny Tavárez</t>
+          <t>Luis R Conriquez, Joel De La P, Chimbala</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Mr. W</t>
+          <t>Que Se Cuide</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2024-05-04</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=76aGwhHBIZY</t>
+          <t>https://www.youtube.com/watch?v=CMAD1xtrmg0</t>
         </is>
       </c>
     </row>
@@ -2521,27 +2521,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Que Se Cuide</t>
+          <t>LALA</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Luis R Conriquez, Joel De La P, Chimbala</t>
+          <t>Myke Towers</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Que Se Cuide</t>
+          <t>LA VIDA ES UNA</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2024-05-04</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=CMAD1xtrmg0</t>
+          <t>https://www.youtube.com/watch?v=BVdngsy95mY</t>
         </is>
       </c>
     </row>
@@ -2553,27 +2553,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>LALA</t>
+          <t>Le Falta la Forty</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Myke Towers</t>
+          <t>Andy Rivera, Pirlo</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LA VIDA ES UNA</t>
+          <t>Le Falta la Forty</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2024-06-27</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=BVdngsy95mY</t>
+          <t>https://www.youtube.com/watch?v=8WIPCUtoM1o</t>
         </is>
       </c>
     </row>
@@ -2585,27 +2585,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Le Falta la Forty</t>
+          <t>Pa Que Me Cu</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Andy Rivera, Pirlo</t>
+          <t>FARIANA, Brray</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Le Falta la Forty</t>
+          <t>Pa Que Me Cu</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2023-04-28</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=8WIPCUtoM1o</t>
+          <t>https://www.youtube.com/watch?v=N7fZ_5G-YyI</t>
         </is>
       </c>
     </row>
@@ -2617,27 +2617,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Pa Que Me Cu</t>
+          <t>BBY BOO - REMIX</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>FARIANA, Brray</t>
+          <t>iZaak, JHAYCO, Anuel AA</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Pa Que Me Cu</t>
+          <t>BBY BOO (REMIX)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2023-04-28</t>
+          <t>2024-03-27</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=N7fZ_5G-YyI</t>
+          <t>https://www.youtube.com/watch?v=MKw2FQ2yKEY</t>
         </is>
       </c>
     </row>
@@ -2649,27 +2649,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BBY BOO - REMIX</t>
+          <t>No Somos Iguales</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>iZaak, Jhayco, Anuel AA</t>
+          <t>Victor Drija, Sixto Rein, Gustavo Elis</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>BBY BOO (REMIX)</t>
+          <t>No Somos Iguales</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2024-03-27</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=MKw2FQ2yKEY</t>
+          <t>https://www.youtube.com/watch?v=AmGyIELqs0A</t>
         </is>
       </c>
     </row>
@@ -2681,27 +2681,27 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>No Somos Iguales</t>
+          <t>No Te Quieren Conmigo - Remix</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Victor Drija, Sixto Rein, Gustavo Elis</t>
+          <t>Gaby Music, Anuel AA, Luar La L, Lunay, Bryant Myers</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>No Somos Iguales</t>
+          <t>No Te Quieren Conmigo (Remix) (Gaby Music, Anuel AA, Luar LA L)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2024-04-05</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=AmGyIELqs0A</t>
+          <t>https://www.youtube.com/watch?v=P6NMN8mbnyI</t>
         </is>
       </c>
     </row>
@@ -2713,27 +2713,27 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>No Te Quieren Conmigo - Remix</t>
+          <t>Como Se Olvida</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Gaby Music, Anuel AA, Luar La L, Lunay, Bryant Myers</t>
+          <t>Arod, Magnate</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>No Te Quieren Conmigo (Remix) (Gaby Music, Anuel AA, Luar LA L)</t>
+          <t>Como Se Olvida</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2024-04-05</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=P6NMN8mbnyI</t>
+          <t>https://www.youtube.com/watch?v=BCrqgpWUANM</t>
         </is>
       </c>
     </row>
@@ -2745,27 +2745,27 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Como Se Olvida</t>
+          <t>FUEGO</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Arod, Magnate</t>
+          <t>Aaantonio</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Como Se Olvida</t>
+          <t>FUEGO</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-07-12</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=BCrqgpWUANM</t>
+          <t>https://www.youtube.com/watch?v=C-y8pE1mONU</t>
         </is>
       </c>
     </row>
@@ -2777,27 +2777,27 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>FUEGO</t>
+          <t>Puntería</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Aaantonio</t>
+          <t>Shakira, Cardi B</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>FUEGO</t>
+          <t>Las Mujeres Ya No Lloran</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=C-y8pE1mONU</t>
+          <t>https://www.youtube.com/watch?v=SHnDwYgGKkY</t>
         </is>
       </c>
     </row>
@@ -2809,27 +2809,27 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Puntería</t>
+          <t>SI SABE FERXXO</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Shakira, Cardi B</t>
+          <t>Blessd, Feid</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Las Mujeres Ya No Lloran</t>
+          <t>SI SABE FERXXO</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-01-24</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=SHnDwYgGKkY</t>
+          <t>https://www.youtube.com/watch?v=og9ewQAioUk</t>
         </is>
       </c>
     </row>
@@ -2841,27 +2841,27 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>SI SABE FERXXO</t>
+          <t>Reggaeton Champagne</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Blessd, Feid</t>
+          <t>Bellakath, Dani Flow</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SI SABE FERXXO</t>
+          <t>Kittyponeo</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2024-01-24</t>
+          <t>2023-10-05</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=og9ewQAioUk</t>
+          <t>https://www.youtube.com/watch?v=h6qbOjac8qo</t>
         </is>
       </c>
     </row>
@@ -2873,27 +2873,27 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Reggaeton Champagne</t>
+          <t>Lollipop - Remix</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Bellakath, Dani Flow</t>
+          <t>Darell, Ozuna, Maluma</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Kittyponeo</t>
+          <t>Lollipop (Remix)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>2024-02-15</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=h6qbOjac8qo</t>
+          <t>https://www.youtube.com/watch?v=Zc_sUNNCE40</t>
         </is>
       </c>
     </row>
@@ -2905,27 +2905,27 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Lollipop - Remix</t>
+          <t>Igual Que Un Ángel (with Peso Pluma)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Darell, Ozuna, Maluma</t>
+          <t>Kali Uchis, Peso Pluma</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Lollipop (Remix)</t>
+          <t>ORQUÍDEAS</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Zc_sUNNCE40</t>
+          <t>https://www.youtube.com/watch?v=YR1t_MUN8I4</t>
         </is>
       </c>
     </row>
@@ -2937,27 +2937,27 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Igual Que Un Ángel (with Peso Pluma)</t>
+          <t>La Torta</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Kali Uchis, Peso Pluma</t>
+          <t>FARIANA</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>ORQUÍDEAS</t>
+          <t>La Torta</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2022-09-30</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=EY-nAOFpenI</t>
+          <t>https://www.youtube.com/watch?v=eCccfZJHOHI</t>
         </is>
       </c>
     </row>
@@ -2969,27 +2969,27 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>La Torta</t>
+          <t>EMPELOTICA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>FARIANA</t>
+          <t>Lenny Tavárez, Feid</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>La Torta</t>
+          <t>EMPELOTICA</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=eCccfZJHOHI</t>
+          <t>https://www.youtube.com/watch?v=12WrveSJ7wI</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Brray, Anuel AA, Chencho Corleone, Jhayco, Ryan Castro</t>
+          <t>Brray, Anuel AA, Chencho Corleone, JHAYCO, Ryan Castro</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=y52O69VCOR4</t>
+          <t>https://www.youtube.com/watch?v=Hq3oLRLwVeE</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=6HgF6T02ZBY</t>
+          <t>https://www.youtube.com/watch?v=DPx2YgYTA-8</t>
         </is>
       </c>
     </row>
@@ -3577,27 +3577,27 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>PUNTO 40</t>
+          <t>Tú Na Más</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Rauw Alejandro, Baby Rasta</t>
+          <t>Brytiago</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>SATURNO</t>
+          <t>Afro Vibes</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=rhctf92wgqU</t>
+          <t>https://www.youtube.com/watch?v=4nwUD4W1n80</t>
         </is>
       </c>
     </row>
@@ -3609,27 +3609,27 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Marisola - Remix</t>
+          <t>PUNTO 40</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Cris Mj, Duki, Nicki Nicole, Standly, Stars Music Chile</t>
+          <t>Rauw Alejandro, Baby Rasta</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Marisola (Remix)</t>
+          <t>SATURNO</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2022-12-15</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=BVQatzChOqo</t>
+          <t>https://www.youtube.com/watch?v=rhctf92wgqU</t>
         </is>
       </c>
     </row>
@@ -3641,27 +3641,27 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Shakira: Bzrp Music Sessions, Vol. 53</t>
+          <t>Marisola - Remix</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Bizarrap, Shakira</t>
+          <t>Cris Mj, Duki, Nicki Nicole, Standly, Stars Music Chile</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Shakira: Bzrp Music Sessions, Vol. 53</t>
+          <t>Marisola (Remix)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2022-12-15</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=CocEMWdc7Ck</t>
+          <t>https://www.youtube.com/watch?v=BVQatzChOqo</t>
         </is>
       </c>
     </row>
@@ -3673,27 +3673,27 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>La Llevo Al Cielo (Ft. Ñengo Flow)</t>
+          <t>Shakira: Bzrp Music Sessions, Vol. 53</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Chris Jedi, Anuel AA, Chencho Corleone, Ñengo Flow</t>
+          <t>Bizarrap, Shakira</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>La Llevo Al Cielo (Ft. Ñengo Flow)</t>
+          <t>Shakira: Bzrp Music Sessions, Vol. 53</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2022-05-20</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=GEy_XBp-hLo</t>
+          <t>https://www.youtube.com/watch?v=CocEMWdc7Ck</t>
         </is>
       </c>
     </row>
@@ -3705,27 +3705,27 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TE SUPERAO</t>
+          <t>La Llevo Al Cielo (Ft. Ñengo Flow)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Lopeta, Winpino</t>
+          <t>Chris Jedi, Anuel AA, Chencho Corleone, Ñengo Flow</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>TE SUPERAO</t>
+          <t>La Llevo Al Cielo (Ft. Ñengo Flow)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2022-05-20</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=LRtvI0vM_R4</t>
+          <t>https://www.youtube.com/watch?v=GEy_XBp-hLo</t>
         </is>
       </c>
     </row>
@@ -3737,27 +3737,27 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>GATÚBELA</t>
+          <t>TE SUPERAO</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>KAROL G, Maldy</t>
+          <t>Lopeta, Winpino</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>GATÚBELA</t>
+          <t>TE SUPERAO</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=SK37InR9j38</t>
+          <t>https://www.youtube.com/watch?v=LRtvI0vM_R4</t>
         </is>
       </c>
     </row>
@@ -3769,27 +3769,27 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>BESO</t>
+          <t>GATÚBELA</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>ROSALÍA, Rauw Alejandro</t>
+          <t>KAROL G, Maldy</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>RR</t>
+          <t>GATÚBELA</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2023-03-24</t>
+          <t>2022-08-26</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=QXQQAsIhHMw</t>
+          <t>https://www.youtube.com/watch?v=SK37InR9j38</t>
         </is>
       </c>
     </row>
@@ -3801,27 +3801,27 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Chulo pt.2</t>
+          <t>BESO</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Bad Gyal, Tokischa, Young Miko</t>
+          <t>ROSALÍA, Rauw Alejandro</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Chulo pt.2</t>
+          <t>RR</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2023-06-22</t>
+          <t>2023-03-24</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=tnbpWZNAT_Y</t>
+          <t>https://www.youtube.com/watch?v=QXQQAsIhHMw</t>
         </is>
       </c>
     </row>
@@ -3833,27 +3833,27 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Besos Moja2</t>
+          <t>Chulo pt.2</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Wisin &amp; Yandel, ROSALÍA</t>
+          <t>Bad Gyal, Tokischa, Young Miko</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>La Última Misión</t>
+          <t>Chulo pt.2</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2023-06-22</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=dww6WUMsjDE</t>
+          <t>https://www.youtube.com/watch?v=tnbpWZNAT_Y</t>
         </is>
       </c>
     </row>
@@ -3865,27 +3865,27 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CLASSY 101</t>
+          <t>Besos Moja2</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Feid, Young Miko</t>
+          <t>Wisin &amp; Yandel, ROSALÍA</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>CLASSY 101</t>
+          <t>La Última Misión</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=DwUA6misBRg</t>
+          <t>https://www.youtube.com/watch?v=dww6WUMsjDE</t>
         </is>
       </c>
     </row>
@@ -3897,27 +3897,27 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TQG</t>
+          <t>CLASSY 101</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>KAROL G, Shakira</t>
+          <t>Feid, Young Miko</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>TQG</t>
+          <t>CLASSY 101</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=jZGpkLElSu8</t>
+          <t>https://www.youtube.com/watch?v=DwUA6misBRg</t>
         </is>
       </c>
     </row>
@@ -3929,27 +3929,27 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>La Jumpa</t>
+          <t>TQG</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Arcángel, Bad Bunny</t>
+          <t>KAROL G, Shakira</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>La Jumpa</t>
+          <t>TQG</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ubbE6gyBf8k</t>
+          <t>https://www.youtube.com/watch?v=jZGpkLElSu8</t>
         </is>
       </c>
     </row>
@@ -3961,27 +3961,27 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Quevedo: Bzrp Music Sessions, Vol. 52</t>
+          <t>La Jumpa</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Bizarrap, Quevedo</t>
+          <t>Arcángel, Bad Bunny</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Quevedo: Bzrp Music Sessions, Vol. 52</t>
+          <t>La Jumpa</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2022-07-06</t>
+          <t>2022-11-30</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=A_g3lMcWVy0</t>
+          <t>https://www.youtube.com/watch?v=ubbE6gyBf8k</t>
         </is>
       </c>
     </row>
@@ -3993,27 +3993,27 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>PANTIES Y BRASIERES</t>
+          <t>Quevedo: Bzrp Music Sessions, Vol. 52</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Rauw Alejandro, Daddy Yankee</t>
+          <t>Bizarrap, Quevedo</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>PANTIES Y BRASIERES</t>
+          <t>Quevedo: Bzrp Music Sessions, Vol. 52</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2023-01-26</t>
+          <t>2022-07-06</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Sg4bDBCSaMA</t>
+          <t>https://www.youtube.com/watch?v=A_g3lMcWVy0</t>
         </is>
       </c>
     </row>
@@ -4025,27 +4025,27 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>La Bachata</t>
+          <t>PANTIES Y BRASIERES</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Manuel Turizo</t>
+          <t>Rauw Alejandro, Daddy Yankee</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>La Bachata</t>
+          <t>PANTIES Y BRASIERES</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2022-05-26</t>
+          <t>2023-01-26</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TiM_TFpT_DE</t>
+          <t>https://www.youtube.com/watch?v=Sg4bDBCSaMA</t>
         </is>
       </c>
     </row>
@@ -4057,27 +4057,27 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>DESPECHÁ</t>
+          <t>La Bachata</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ROSALÍA</t>
+          <t>Manuel Turizo</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>MOTOMAMI +</t>
+          <t>La Bachata</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2022-09-09</t>
+          <t>2022-05-26</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=5g2hT4GmAGU</t>
+          <t>https://www.youtube.com/watch?v=TiM_TFpT_DE</t>
         </is>
       </c>
     </row>
@@ -4089,27 +4089,27 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Fecha</t>
+          <t>DESPECHÁ</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Feid, Yandel</t>
+          <t>ROSALÍA</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>MANIFESTING 20-05</t>
+          <t>MOTOMAMI +</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2022-09-09</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=4F0cCKFac04</t>
+          <t>https://www.youtube.com/watch?v=5g2hT4GmAGU</t>
         </is>
       </c>
     </row>
@@ -4121,27 +4121,27 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Pantysito</t>
+          <t>Fecha</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Alejo, Feid, ROBI</t>
+          <t>Feid, Yandel</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Pantysito</t>
+          <t>MANIFESTING 20-05</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2022-03-18</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Fa2qpmVwNQ8</t>
+          <t>https://www.youtube.com/watch?v=4F0cCKFac04</t>
         </is>
       </c>
     </row>
@@ -4153,27 +4153,27 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>LOKERA</t>
+          <t>Pantysito</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Rauw Alejandro, Lyanno, Brray</t>
+          <t>Alejo, Feid, ROBI</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>LOKERA</t>
+          <t>Pantysito</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2022-07-25</t>
+          <t>2022-03-18</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=0JeughwzfR0</t>
+          <t>https://www.youtube.com/watch?v=Fa2qpmVwNQ8</t>
         </is>
       </c>
     </row>
@@ -4185,27 +4185,27 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MAMIII</t>
+          <t>LOKERA</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Becky G, KAROL G</t>
+          <t>Rauw Alejandro, Lyanno, Brray</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>MAMIII</t>
+          <t>LOKERA</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2022-02-10</t>
+          <t>2022-07-25</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=flL8ZMqIWGA</t>
+          <t>https://www.youtube.com/watch?v=0JeughwzfR0</t>
         </is>
       </c>
     </row>
@@ -4217,27 +4217,27 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Domino</t>
+          <t>MAMIII</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Maisak</t>
+          <t>Becky G, KAROL G</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Domino</t>
+          <t>MAMIII</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2024-05-10</t>
+          <t>2022-02-10</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=dV1s5845i_4</t>
+          <t>https://www.youtube.com/watch?v=flL8ZMqIWGA</t>
         </is>
       </c>
     </row>
@@ -4441,27 +4441,27 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Caro</t>
+          <t>PONTE NASTY</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>VN22, Junior Caldera</t>
+          <t>Rauw Alejandro, Jowell &amp; Randy</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Caro</t>
+          <t>PLAYA SATURNO</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2024-06-20</t>
+          <t>2023-07-07</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=XUwXQVhv4A8</t>
+          <t>https://www.youtube.com/watch?v=LVvNxlKYt88</t>
         </is>
       </c>
     </row>
@@ -4473,27 +4473,27 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>PONTE NASTY</t>
+          <t>Loco Por Perrearte - Remix</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Rauw Alejandro, Jowell &amp; Randy</t>
+          <t>De La Ghetto, Rauw Alejandro</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>PLAYA SATURNO</t>
+          <t>Loco Por Perrearte (Remix)</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=LVvNxlKYt88</t>
+          <t>https://www.youtube.com/watch?v=8y3-7OHxGPI</t>
         </is>
       </c>
     </row>
@@ -4505,27 +4505,27 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Loco Por Perrearte - Remix</t>
+          <t>Feliz Cumpleaños Ferxxo</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>De La Ghetto, Rauw Alejandro</t>
+          <t>Feid</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Loco Por Perrearte (Remix)</t>
+          <t>Feliz Cumpleaños Ferxxo</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2022-08-19</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=8y3-7OHxGPI</t>
+          <t>https://www.youtube.com/watch?v=jRxDUsGmwuc</t>
         </is>
       </c>
     </row>
@@ -4537,17 +4537,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Feliz Cumpleaños Ferxxo</t>
+          <t>No Confío</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Feid</t>
+          <t>Jay Wheeler, El Alfa, DJ Nelson</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Feliz Cumpleaños Ferxxo</t>
+          <t>Emociones</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4557,7 +4557,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=jRxDUsGmwuc</t>
+          <t>https://www.youtube.com/watch?v=90bdiZhz-SI</t>
         </is>
       </c>
     </row>
@@ -4569,27 +4569,27 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>No Confío</t>
+          <t>Una Foto Remix (feat. Emilia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Jay Wheeler, El Alfa, DJ Nelson</t>
+          <t>Mesita, Nicki Nicole, Tiago PZK, Emilia</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Emociones</t>
+          <t>Una Foto Remix (feat. Emilia)</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2022-08-19</t>
+          <t>2024-01-05</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=90bdiZhz-SI</t>
+          <t>https://www.youtube.com/watch?v=LWdAMW_4Yq0</t>
         </is>
       </c>
     </row>
@@ -4601,27 +4601,1435 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Una Foto Remix (feat. Emilia)</t>
+          <t>La Pasamos CXBRXN</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Mesita, Nicki Nicole, Tiago PZK, Emilia</t>
+          <t>Feid, Zion &amp; Lennox</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Una Foto Remix (feat. Emilia)</t>
+          <t>SIXDO</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=LWdAMW_4Yq0</t>
+          <t>https://www.youtube.com/watch?v=QvaahfJH4cs</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Reggaeton 2024</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Por Mas Que Busco</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Yannc, Chino El Asesino, castleurbano</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Por Mas Que Busco</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=mgDsJPZFWSc</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Reggaeton de Antes</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Milo Mae, Kenny Die</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Reggaeton de Antes</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>2021-09-08</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=CA_LMqskrKw</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Se Va</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Carlos Corté$</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Viernes 32</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>2021-08-20</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=auitZMv17BA</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Montañita</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Carlos Corté$</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Pack Verano 001</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>2021-05-04</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=h8dKcs-F0LU</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Solo Conmigo</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Milo Mae</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Solo Conmigo</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>2022-04-07</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=tCGoxzMQj1U</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Tu Gato Bellaco</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Milo Mae</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Tu Gato Bellaco</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>2020-05-31</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=qysMrDooSpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>J.O.D.E.R.</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>H Vice</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>J.O.D.E.R.</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>2022-04-28</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=MFYvSbdu-og</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>BURBERRY</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Carlos Corté$</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>PACK VERANO 002</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2022-08-26</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=qSajtM5Fdmw</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Muevete Y No Pares</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Star Squad</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Los Teachers</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>2020-11-15</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=2kg7bzv3Jnw</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Deleite</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>MATEO OROZCØ, Bryant BRX, panterflame</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Deleite</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=US3Rq8cQt9g</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Dime</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>AURO</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Placeres Prohibidos</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>2022-08-13</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=M7KOfeIKCt4</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Milo Mae</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>2020-05-30</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=zO3XXAvlQfI</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Vinotinto</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Carlos Corté$</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Santa Lucía</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>2021-07-02</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Svl7ceUyN_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>De mi no quiere saber</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Milo Mae</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>De mi no quiere saber</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>2022-07-13</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=3n4Y52GkTVo</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>ESA BABY</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Carlos Corté$</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>DULCE</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>2021-02-26</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=OZSQGLxqZuc</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Alex Ponce</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>ser humano</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>2023-03-24</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=NuGFGvX4wAQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Nota De Colores</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Milo Mae</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Real Suite Club</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>2023-05-26</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=VgfWC1L3k9A</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>FOTO$</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Carlos Corté$</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>FOTO$</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>2023-05-25</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=LOHq7g8wPCg</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>ENTIÉNDEME</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Carlos Corté$</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>MELANIE</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=RkKzMQqH6zk</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>ARMANI</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Carlos Corté$, COQE</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>MELANIE</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=UQnfD8MQ6dU</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Mi Noche</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Reykon, Kannon El Protagonista</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Mi Noche</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>2012-03-11</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=IHbHQyt3vrc</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Misión 6</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Milo Mae</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Mision 6</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=OZ-O9x4ELrc</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>PERO MAMI</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Milo Mae, Carlos Corté$</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>SUAVETON &amp; SUAVERREO</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=sms1EHZS5pU</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>NADIE PIERDE</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Milo Mae, Carlos Corté$</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>SUAVETON &amp; SUAVERREO</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=FjSVthV5I3M</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>LA ULTIMA VEZ QUE LA VI</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>BLANKO</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>LA ULTIMA VEZ QUE LA VI</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>2023-07-07</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=AW8yH2ht2Mg</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>MUÑEKA</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>BLANKO</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>MUÑEKA</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=EqCiHaO5kNw</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>NO VOY A OLVIDARTE - REMIX</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>BLANKO, VIUS, Rombai</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>NO VOY A OLVIDARTE (REMIX)</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=sWG9CkV0-_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Calderón (Yoli)</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>I.N.R.I, La Corte Music</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Calderón (Yoli)</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>2022-08-28</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=8uTge9KlBm4</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Regreso Luego</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Milo Mae, COQE</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Regreso Luego</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>2024-01-26</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=J-d6tzYStYg</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Maquillaje</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Renn, Yexel</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Maquillaje</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=I9_21ocFM9o</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>SUERTE</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Renn</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>SUERTE</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>2023-03-23</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Kn3OJ2njI6Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>PAGANI</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>BLANKO</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>PAGANI</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=mtDMUPmmsnk</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Alto Troyanaje</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Waldokinc El Troyano</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Nivel 2</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>2013-04-30</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=bjaa8L37xbM</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Ve y Diles</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Alex Ponce, Sebastian Llosa</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Ve y Diles</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>2024-05-09</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Qhw83uv0RUs</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Milo Mae</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>LO TOP, LO EXCLUSIVE</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>2024-02-16</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=_vnr3ZtQRBg</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Una y otra vez</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Vincez, Milo Mae, Deep Nao</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Una y otra vez</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=bQWS4WGiLhA</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>PLAYER</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Carlos Corté$</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>PLAYER</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=X3qfOg9X7hQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>CONTIGO</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Carlos Corté$</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>PACK VERANO 002</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>2022-08-26</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=TUspIUD8t_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>SEXATON</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Milo Mae, Carlos Corté$, Kenny Die, Vyse</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>LO TOP, LO EXCLUSIVE</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>2024-02-16</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=yr_vgcdAyKk</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Tu para Mi</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Kenny Die</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Tu para Mi</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>2022-06-16</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=P59nEZ-8mDo</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Titerito</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Ecby, Milo Mae, Strauss</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Titerito</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>2024-06-13</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=I6THGFRfBDg</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Casa Blanca</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Mersa</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Casa Blanca</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>2024-02-13</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=4eBG5zOrJW4</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Lunares</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Mersa, Mr Reo, Kiff</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Lunares</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>2024-05-31</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ddbluhWj-EA</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGGAETON ECUADOR </t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Como tu no hay otra</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Dayan</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Buena Suerte y Adios</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=WeOPkKxP_E0</t>
         </is>
       </c>
     </row>

--- a/playlist_tracks.xlsx
+++ b/playlist_tracks.xlsx
@@ -1549,7 +1549,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9j4f67o_5iw</t>
+          <t>https://www.youtube.com/watch?v=sfHG9Vg-ELE</t>
         </is>
       </c>
     </row>
@@ -2361,27 +2361,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Fin de Semana</t>
+          <t>Adicto</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Anonimus, Julio H, Mr. Saik</t>
+          <t>Carlitos Rossy, Dalex</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Fin de Semana</t>
+          <t>Sad Valentín</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2023-05-25</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=VZkXHpbQedo</t>
+          <t>https://www.youtube.com/watch?v=URvNDDbLIZ8</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=YR1t_MUN8I4</t>
+          <t>https://www.youtube.com/watch?v=EY-nAOFpenI</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=DPx2YgYTA-8</t>
+          <t>https://www.youtube.com/watch?v=6HgF6T02ZBY</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TiM_TFpT_DE</t>
+          <t>https://www.youtube.com/watch?v=D6Ju9CyOB-I</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=US3Rq8cQt9g</t>
+          <t>https://www.youtube.com/watch?v=WENoupAz5C0</t>
         </is>
       </c>
     </row>
@@ -5561,27 +5561,27 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Maquillaje</t>
+          <t>SUERTE</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Renn, Yexel</t>
+          <t>Renn</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Maquillaje</t>
+          <t>SUERTE</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=I9_21ocFM9o</t>
+          <t>https://www.youtube.com/watch?v=Kn3OJ2njI6Y</t>
         </is>
       </c>
     </row>
@@ -5593,27 +5593,27 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>SUERTE</t>
+          <t>PAGANI</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Renn</t>
+          <t>BLANKO</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>SUERTE</t>
+          <t>PAGANI</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Kn3OJ2njI6Y</t>
+          <t>https://www.youtube.com/watch?v=mtDMUPmmsnk</t>
         </is>
       </c>
     </row>
@@ -5625,27 +5625,27 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>PAGANI</t>
+          <t>Alto Troyanaje</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>BLANKO</t>
+          <t>Waldokinc El Troyano</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>PAGANI</t>
+          <t>Nivel 2</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2013-04-30</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=mtDMUPmmsnk</t>
+          <t>https://www.youtube.com/watch?v=bjaa8L37xbM</t>
         </is>
       </c>
     </row>
@@ -5657,27 +5657,27 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Alto Troyanaje</t>
+          <t>Ve y Diles</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Waldokinc El Troyano</t>
+          <t>Alex Ponce, Sebastian Llosa</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Nivel 2</t>
+          <t>Ve y Diles</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>2013-04-30</t>
+          <t>2024-05-09</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=bjaa8L37xbM</t>
+          <t>https://www.youtube.com/watch?v=Qhw83uv0RUs</t>
         </is>
       </c>
     </row>
@@ -5689,27 +5689,27 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Ve y Diles</t>
+          <t>VIP</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Alex Ponce, Sebastian Llosa</t>
+          <t>Milo Mae</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Ve y Diles</t>
+          <t>LO TOP, LO EXCLUSIVE</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>2024-05-09</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Qhw83uv0RUs</t>
+          <t>https://www.youtube.com/watch?v=_vnr3ZtQRBg</t>
         </is>
       </c>
     </row>
@@ -5721,27 +5721,27 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>Una y otra vez</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Milo Mae</t>
+          <t>Vincez, Milo Mae, Deep Nao</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>LO TOP, LO EXCLUSIVE</t>
+          <t>Una y otra vez</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>2024-02-16</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=_vnr3ZtQRBg</t>
+          <t>https://www.youtube.com/watch?v=bQWS4WGiLhA</t>
         </is>
       </c>
     </row>
@@ -5753,27 +5753,27 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Una y otra vez</t>
+          <t>PLAYER</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Vincez, Milo Mae, Deep Nao</t>
+          <t>Carlos Corté$</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Una y otra vez</t>
+          <t>PLAYER</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=bQWS4WGiLhA</t>
+          <t>https://www.youtube.com/watch?v=X3qfOg9X7hQ</t>
         </is>
       </c>
     </row>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>PLAYER</t>
+          <t>CONTIGO</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -5795,17 +5795,17 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>PLAYER</t>
+          <t>PACK VERANO 002</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2022-08-26</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=X3qfOg9X7hQ</t>
+          <t>https://www.youtube.com/watch?v=TUspIUD8t_s</t>
         </is>
       </c>
     </row>
@@ -5817,27 +5817,27 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CONTIGO</t>
+          <t>SEXATON</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Carlos Corté$</t>
+          <t>Milo Mae, Carlos Corté$, Kenny Die, Vyse</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>PACK VERANO 002</t>
+          <t>LO TOP, LO EXCLUSIVE</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TUspIUD8t_s</t>
+          <t>https://www.youtube.com/watch?v=yr_vgcdAyKk</t>
         </is>
       </c>
     </row>
@@ -5849,27 +5849,27 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>SEXATON</t>
+          <t>Tu para Mi</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Milo Mae, Carlos Corté$, Kenny Die, Vyse</t>
+          <t>Kenny Die</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>LO TOP, LO EXCLUSIVE</t>
+          <t>Tu para Mi</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>2024-02-16</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=yr_vgcdAyKk</t>
+          <t>https://www.youtube.com/watch?v=P59nEZ-8mDo</t>
         </is>
       </c>
     </row>
@@ -5881,27 +5881,27 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Tu para Mi</t>
+          <t>Titerito</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Kenny Die</t>
+          <t>Ecby, Milo Mae, Strauss</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Tu para Mi</t>
+          <t>Titerito</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>2024-06-13</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=P59nEZ-8mDo</t>
+          <t>https://www.youtube.com/watch?v=I6THGFRfBDg</t>
         </is>
       </c>
     </row>
@@ -5913,27 +5913,27 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Titerito</t>
+          <t>Casa Blanca</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Ecby, Milo Mae, Strauss</t>
+          <t>Mersa</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Titerito</t>
+          <t>Casa Blanca</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>2024-06-13</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=I6THGFRfBDg</t>
+          <t>https://www.youtube.com/watch?v=4eBG5zOrJW4</t>
         </is>
       </c>
     </row>
@@ -5945,27 +5945,27 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Casa Blanca</t>
+          <t>Lunares</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Mersa</t>
+          <t>Mersa, Mr Reo, Kiff</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Casa Blanca</t>
+          <t>Lunares</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2024-05-31</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=4eBG5zOrJW4</t>
+          <t>https://www.youtube.com/watch?v=ddbluhWj-EA</t>
         </is>
       </c>
     </row>
@@ -5977,27 +5977,27 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Lunares</t>
+          <t>Como tu no hay otra</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Mersa, Mr Reo, Kiff</t>
+          <t>Dayan</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Lunares</t>
+          <t>Buena Suerte y Adios</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>2024-05-31</t>
+          <t>2024-03-29</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ddbluhWj-EA</t>
+          <t>https://www.youtube.com/watch?v=WeOPkKxP_E0</t>
         </is>
       </c>
     </row>
@@ -6009,27 +6009,27 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Como tu no hay otra</t>
+          <t>Noche De Amanecia</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Dayan</t>
+          <t>Renn</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Buena Suerte y Adios</t>
+          <t>Noche De Amanecia</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>2024-03-29</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=WeOPkKxP_E0</t>
+          <t>https://www.youtube.com/watch?v=oUXI0Gf0x_w</t>
         </is>
       </c>
     </row>
